--- a/assets/upload/3.a.3.ewmp_dosen_tetap.xlsx
+++ b/assets/upload/3.a.3.ewmp_dosen_tetap.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7930F27-549F-4501-9BAA-D078FB8E68A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,13 +28,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>KaPulahtaFTUP</author>
     <author>Adm-pulahta</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>prodi</t>
   </si>
@@ -110,9 +111,6 @@
     <t>dtps</t>
   </si>
   <si>
-    <t>pembelajaran_pembimbingan</t>
-  </si>
-  <si>
     <t>penelitian</t>
   </si>
   <si>
@@ -121,11 +119,20 @@
   <si>
     <t xml:space="preserve">tugas_tambahan </t>
   </si>
+  <si>
+    <t>ps_yang_diakreditasi</t>
+  </si>
+  <si>
+    <t>ps_lain_di_dalam_pt</t>
+  </si>
+  <si>
+    <t>ps_lain_di_luar_pt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1013,11 +1020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,14 +1032,14 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1043,22 +1050,28 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1067,6 +1080,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/upload/3.a.3.ewmp_dosen_tetap.xlsx
+++ b/assets/upload/3.a.3.ewmp_dosen_tetap.xlsx
@@ -1,66 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\borang\assets\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7930F27-549F-4501-9BAA-D078FB8E68A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662AEFF5-ED1C-4E05-AC0C-B1038789A74F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>KaPulahtaFTUP</author>
     <author>Adm-pulahta</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KaPulahtaFTUP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ps yang diakreditasi
-ps lain di dalam pt
-ps lain di luar pt</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -102,9 +67,6 @@
     <t>prodi</t>
   </si>
   <si>
-    <t>nik/nidn</t>
-  </si>
-  <si>
     <t xml:space="preserve">nama_dosen </t>
   </si>
   <si>
@@ -127,6 +89,9 @@
   </si>
   <si>
     <t>ps_lain_di_luar_pt</t>
+  </si>
+  <si>
+    <t>nidn</t>
   </si>
 </sst>
 </file>
@@ -662,10 +627,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1023,13 +989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="6" width="24.5703125" customWidth="1"/>
@@ -1041,38 +1007,38 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1084,6 +1050,11 @@
       <c r="J2" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"V,X"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="222" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/assets/upload/3.a.3.ewmp_dosen_tetap.xlsx
+++ b/assets/upload/3.a.3.ewmp_dosen_tetap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\e-borang\assets\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ridho\xampp7.4.25\htdocs\borangft\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662AEFF5-ED1C-4E05-AC0C-B1038789A74F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8852B-0609-413B-9899-9DCAD33704E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dosen" sheetId="1" r:id="rId1"/>
@@ -19,53 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Adm-pulahta</author>
-  </authors>
-  <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Adm-pulahta:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Arsitektur s1
-Teknik Sipil S1
-Teknik Mesin S1
-Teknik Industri S1
-Teknik Informatika S1
-Teknik Elektro S1
-Teknik Mesin D3
-Teknik Elektro D3
-Teknik Mesin S2</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>prodi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">nama_dosen </t>
   </si>
@@ -98,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,19 +61,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -585,47 +527,47 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -986,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,42 +944,38 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1047,7 +985,6 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1057,6 +994,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="222" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>